--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.031229095664</v>
+        <v>3.0315905</v>
       </c>
       <c r="H2">
-        <v>3.031229095664</v>
+        <v>6.063181</v>
       </c>
       <c r="I2">
-        <v>0.191219628291143</v>
+        <v>0.180036816325923</v>
       </c>
       <c r="J2">
-        <v>0.191219628291143</v>
+        <v>0.1479427771590296</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N2">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O2">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P2">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q2">
-        <v>320.8760826906268</v>
+        <v>326.390388718283</v>
       </c>
       <c r="R2">
-        <v>320.8760826906268</v>
+        <v>1305.561554873132</v>
       </c>
       <c r="S2">
-        <v>0.05388453115529196</v>
+        <v>0.04954295470080704</v>
       </c>
       <c r="T2">
-        <v>0.05388453115529196</v>
+        <v>0.03043377747258417</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.031229095664</v>
+        <v>3.0315905</v>
       </c>
       <c r="H3">
-        <v>3.031229095664</v>
+        <v>6.063181</v>
       </c>
       <c r="I3">
-        <v>0.191219628291143</v>
+        <v>0.180036816325923</v>
       </c>
       <c r="J3">
-        <v>0.191219628291143</v>
+        <v>0.1479427771590296</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N3">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P3">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q3">
-        <v>77.80868346751095</v>
+        <v>83.10113217232367</v>
       </c>
       <c r="R3">
-        <v>77.80868346751095</v>
+        <v>498.606793033942</v>
       </c>
       <c r="S3">
-        <v>0.01306636628476834</v>
+        <v>0.01261396097773203</v>
       </c>
       <c r="T3">
-        <v>0.01306636628476834</v>
+        <v>0.01162295881712633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.031229095664</v>
+        <v>3.0315905</v>
       </c>
       <c r="H4">
-        <v>3.031229095664</v>
+        <v>6.063181</v>
       </c>
       <c r="I4">
-        <v>0.191219628291143</v>
+        <v>0.180036816325923</v>
       </c>
       <c r="J4">
-        <v>0.191219628291143</v>
+        <v>0.1479427771590296</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N4">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O4">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P4">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q4">
-        <v>229.7492400133098</v>
+        <v>249.5118032058935</v>
       </c>
       <c r="R4">
-        <v>229.7492400133098</v>
+        <v>1497.070819235361</v>
       </c>
       <c r="S4">
-        <v>0.03858165425603867</v>
+        <v>0.03787351708513659</v>
       </c>
       <c r="T4">
-        <v>0.03858165425603867</v>
+        <v>0.03489802530048896</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.031229095664</v>
+        <v>3.0315905</v>
       </c>
       <c r="H5">
-        <v>3.031229095664</v>
+        <v>6.063181</v>
       </c>
       <c r="I5">
-        <v>0.191219628291143</v>
+        <v>0.180036816325923</v>
       </c>
       <c r="J5">
-        <v>0.191219628291143</v>
+        <v>0.1479427771590296</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N5">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O5">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P5">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q5">
-        <v>212.1838262014256</v>
+        <v>216.0688186683245</v>
       </c>
       <c r="R5">
-        <v>212.1838262014256</v>
+        <v>1296.412912009947</v>
       </c>
       <c r="S5">
-        <v>0.03563190468335194</v>
+        <v>0.03279719031426877</v>
       </c>
       <c r="T5">
-        <v>0.03563190468335194</v>
+        <v>0.03022051463558115</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.031229095664</v>
+        <v>3.0315905</v>
       </c>
       <c r="H6">
-        <v>3.031229095664</v>
+        <v>6.063181</v>
       </c>
       <c r="I6">
-        <v>0.191219628291143</v>
+        <v>0.180036816325923</v>
       </c>
       <c r="J6">
-        <v>0.191219628291143</v>
+        <v>0.1479427771590296</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N6">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O6">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P6">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q6">
-        <v>240.3707449248575</v>
+        <v>252.4000772860663</v>
       </c>
       <c r="R6">
-        <v>240.3707449248575</v>
+        <v>1514.400463716398</v>
       </c>
       <c r="S6">
-        <v>0.04036531730603358</v>
+        <v>0.03831192960236615</v>
       </c>
       <c r="T6">
-        <v>0.04036531730603358</v>
+        <v>0.03530199441389176</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.031229095664</v>
+        <v>3.0315905</v>
       </c>
       <c r="H7">
-        <v>3.031229095664</v>
+        <v>6.063181</v>
       </c>
       <c r="I7">
-        <v>0.191219628291143</v>
+        <v>0.180036816325923</v>
       </c>
       <c r="J7">
-        <v>0.191219628291143</v>
+        <v>0.1479427771590296</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N7">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O7">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P7">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q7">
-        <v>57.70195121016783</v>
+        <v>58.61542488448276</v>
       </c>
       <c r="R7">
-        <v>57.70195121016783</v>
+        <v>234.461699537931</v>
       </c>
       <c r="S7">
-        <v>0.00968985460565849</v>
+        <v>0.008897263645612425</v>
       </c>
       <c r="T7">
-        <v>0.00968985460565849</v>
+        <v>0.005465506519357246</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.2998628461802</v>
+        <v>2.309622333333333</v>
       </c>
       <c r="H8">
-        <v>2.2998628461802</v>
+        <v>6.928866999999999</v>
       </c>
       <c r="I8">
-        <v>0.145082705624681</v>
+        <v>0.1371613520389983</v>
       </c>
       <c r="J8">
-        <v>0.145082705624681</v>
+        <v>0.1690656812893354</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N8">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O8">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P8">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q8">
-        <v>243.4560231239676</v>
+        <v>248.6610679011873</v>
       </c>
       <c r="R8">
-        <v>243.4560231239676</v>
+        <v>1491.966407407124</v>
       </c>
       <c r="S8">
-        <v>0.04088342625279164</v>
+        <v>0.03774438356245858</v>
       </c>
       <c r="T8">
-        <v>0.04088342625279164</v>
+        <v>0.03477903701293625</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.2998628461802</v>
+        <v>2.309622333333333</v>
       </c>
       <c r="H9">
-        <v>2.2998628461802</v>
+        <v>6.928866999999999</v>
       </c>
       <c r="I9">
-        <v>0.145082705624681</v>
+        <v>0.1371613520389983</v>
       </c>
       <c r="J9">
-        <v>0.145082705624681</v>
+        <v>0.1690656812893354</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N9">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P9">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q9">
-        <v>59.0352278133978</v>
+        <v>63.31073764431044</v>
       </c>
       <c r="R9">
-        <v>59.0352278133978</v>
+        <v>569.796638798794</v>
       </c>
       <c r="S9">
-        <v>0.00991375095861489</v>
+        <v>0.009609967436553539</v>
       </c>
       <c r="T9">
-        <v>0.00991375095861489</v>
+        <v>0.01328245615467287</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.2998628461802</v>
+        <v>2.309622333333333</v>
       </c>
       <c r="H10">
-        <v>2.2998628461802</v>
+        <v>6.928866999999999</v>
       </c>
       <c r="I10">
-        <v>0.145082705624681</v>
+        <v>0.1371613520389983</v>
       </c>
       <c r="J10">
-        <v>0.145082705624681</v>
+        <v>0.1690656812893354</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N10">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O10">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P10">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q10">
-        <v>174.3160033006356</v>
+        <v>190.0909879202363</v>
       </c>
       <c r="R10">
-        <v>174.3160033006356</v>
+        <v>1710.818891282127</v>
       </c>
       <c r="S10">
-        <v>0.02927278353673773</v>
+        <v>0.02885400284164798</v>
       </c>
       <c r="T10">
-        <v>0.02927278353673773</v>
+        <v>0.03988067911377263</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.2998628461802</v>
+        <v>2.309622333333333</v>
       </c>
       <c r="H11">
-        <v>2.2998628461802</v>
+        <v>6.928866999999999</v>
       </c>
       <c r="I11">
-        <v>0.145082705624681</v>
+        <v>0.1371613520389983</v>
       </c>
       <c r="J11">
-        <v>0.145082705624681</v>
+        <v>0.1690656812893354</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N11">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O11">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P11">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q11">
-        <v>160.9887220794571</v>
+        <v>164.6123937693143</v>
       </c>
       <c r="R11">
-        <v>160.9887220794571</v>
+        <v>1481.511543923829</v>
       </c>
       <c r="S11">
-        <v>0.02703474106826767</v>
+        <v>0.02498659473316691</v>
       </c>
       <c r="T11">
-        <v>0.02703474106826767</v>
+        <v>0.03453532503507569</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.2998628461802</v>
+        <v>2.309622333333333</v>
       </c>
       <c r="H12">
-        <v>2.2998628461802</v>
+        <v>6.928866999999999</v>
       </c>
       <c r="I12">
-        <v>0.145082705624681</v>
+        <v>0.1371613520389983</v>
       </c>
       <c r="J12">
-        <v>0.145082705624681</v>
+        <v>0.1690656812893354</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N12">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O12">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P12">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q12">
-        <v>182.3747820156895</v>
+        <v>192.2914243975095</v>
       </c>
       <c r="R12">
-        <v>182.3747820156895</v>
+        <v>1730.622819577586</v>
       </c>
       <c r="S12">
-        <v>0.03062608948931508</v>
+        <v>0.02918800815701174</v>
       </c>
       <c r="T12">
-        <v>0.03062608948931508</v>
+        <v>0.04034232593890879</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.2998628461802</v>
+        <v>2.309622333333333</v>
       </c>
       <c r="H13">
-        <v>2.2998628461802</v>
+        <v>6.928866999999999</v>
       </c>
       <c r="I13">
-        <v>0.145082705624681</v>
+        <v>0.1371613520389983</v>
       </c>
       <c r="J13">
-        <v>0.145082705624681</v>
+        <v>0.1690656812893354</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N13">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O13">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P13">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q13">
-        <v>43.77979016175214</v>
+        <v>44.6562602670195</v>
       </c>
       <c r="R13">
-        <v>43.77979016175214</v>
+        <v>267.937561602117</v>
       </c>
       <c r="S13">
-        <v>0.007351914318953971</v>
+        <v>0.006778395308159597</v>
       </c>
       <c r="T13">
-        <v>0.007351914318953971</v>
+        <v>0.006245858033969178</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.943146894111917</v>
+        <v>1.088999333333333</v>
       </c>
       <c r="H14">
-        <v>0.943146894111917</v>
+        <v>3.266998</v>
       </c>
       <c r="I14">
-        <v>0.05949672321831581</v>
+        <v>0.06467231407222906</v>
       </c>
       <c r="J14">
-        <v>0.05949672321831581</v>
+        <v>0.07971537664684517</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N14">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O14">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P14">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q14">
-        <v>99.83847186521234</v>
+        <v>117.2450288786093</v>
       </c>
       <c r="R14">
-        <v>99.83847186521234</v>
+        <v>703.470173271656</v>
       </c>
       <c r="S14">
-        <v>0.01676581564636174</v>
+        <v>0.01779667954512405</v>
       </c>
       <c r="T14">
-        <v>0.01676581564636174</v>
+        <v>0.01639850272247811</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.943146894111917</v>
+        <v>1.088999333333333</v>
       </c>
       <c r="H15">
-        <v>0.943146894111917</v>
+        <v>3.266998</v>
       </c>
       <c r="I15">
-        <v>0.05949672321831581</v>
+        <v>0.06467231407222906</v>
       </c>
       <c r="J15">
-        <v>0.05949672321831581</v>
+        <v>0.07971537664684517</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N15">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P15">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q15">
-        <v>24.20965747930214</v>
+        <v>29.85135279151512</v>
       </c>
       <c r="R15">
-        <v>24.20965747930214</v>
+        <v>268.662175123636</v>
       </c>
       <c r="S15">
-        <v>0.004065513489704883</v>
+        <v>0.004531151253918648</v>
       </c>
       <c r="T15">
-        <v>0.004065513489704883</v>
+        <v>0.006262749406563003</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.943146894111917</v>
+        <v>1.088999333333333</v>
       </c>
       <c r="H16">
-        <v>0.943146894111917</v>
+        <v>3.266998</v>
       </c>
       <c r="I16">
-        <v>0.05949672321831581</v>
+        <v>0.06467231407222906</v>
       </c>
       <c r="J16">
-        <v>0.05949672321831581</v>
+        <v>0.07971537664684517</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N16">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O16">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P16">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q16">
-        <v>71.48495719214533</v>
+        <v>89.62892163371534</v>
       </c>
       <c r="R16">
-        <v>71.48495719214533</v>
+        <v>806.660294703438</v>
       </c>
       <c r="S16">
-        <v>0.01200442666419832</v>
+        <v>0.01360481729201301</v>
       </c>
       <c r="T16">
-        <v>0.01200442666419832</v>
+        <v>0.01880395436993334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.943146894111917</v>
+        <v>1.088999333333333</v>
       </c>
       <c r="H17">
-        <v>0.943146894111917</v>
+        <v>3.266998</v>
       </c>
       <c r="I17">
-        <v>0.05949672321831581</v>
+        <v>0.06467231407222906</v>
       </c>
       <c r="J17">
-        <v>0.05949672321831581</v>
+        <v>0.07971537664684517</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N17">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O17">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P17">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q17">
-        <v>66.01959480691127</v>
+        <v>77.61562766604735</v>
       </c>
       <c r="R17">
-        <v>66.01959480691127</v>
+        <v>698.540648994426</v>
       </c>
       <c r="S17">
-        <v>0.0110866315850118</v>
+        <v>0.01178131360005421</v>
       </c>
       <c r="T17">
-        <v>0.0110866315850118</v>
+        <v>0.01628359121613133</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.943146894111917</v>
+        <v>1.088999333333333</v>
       </c>
       <c r="H18">
-        <v>0.943146894111917</v>
+        <v>3.266998</v>
       </c>
       <c r="I18">
-        <v>0.05949672321831581</v>
+        <v>0.06467231407222906</v>
       </c>
       <c r="J18">
-        <v>0.05949672321831581</v>
+        <v>0.07971537664684517</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N18">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O18">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P18">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q18">
-        <v>74.78976822818692</v>
+        <v>90.6664392495649</v>
       </c>
       <c r="R18">
-        <v>74.78976822818692</v>
+        <v>815.9979532460841</v>
       </c>
       <c r="S18">
-        <v>0.01255940163067356</v>
+        <v>0.01376230259188711</v>
       </c>
       <c r="T18">
-        <v>0.01255940163067356</v>
+        <v>0.01902162332712739</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.943146894111917</v>
+        <v>1.088999333333333</v>
       </c>
       <c r="H19">
-        <v>0.943146894111917</v>
+        <v>3.266998</v>
       </c>
       <c r="I19">
-        <v>0.05949672321831581</v>
+        <v>0.06467231407222906</v>
       </c>
       <c r="J19">
-        <v>0.05949672321831581</v>
+        <v>0.07971537664684517</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N19">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O19">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P19">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q19">
-        <v>17.95358066004113</v>
+        <v>21.055666529583</v>
       </c>
       <c r="R19">
-        <v>17.95358066004113</v>
+        <v>126.333999177498</v>
       </c>
       <c r="S19">
-        <v>0.003014934202365507</v>
+        <v>0.003196049789232033</v>
       </c>
       <c r="T19">
-        <v>0.003014934202365507</v>
+        <v>0.002944955604612015</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.47173736620961</v>
+        <v>1.572783</v>
       </c>
       <c r="H20">
-        <v>1.47173736620961</v>
+        <v>4.718349</v>
       </c>
       <c r="I20">
-        <v>0.09284190116522367</v>
+        <v>0.0934027349972017</v>
       </c>
       <c r="J20">
-        <v>0.09284190116522367</v>
+        <v>0.1151286188991439</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N20">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O20">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P20">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q20">
-        <v>155.7933451794456</v>
+        <v>169.330671388338</v>
       </c>
       <c r="R20">
-        <v>155.7933451794456</v>
+        <v>1015.984028330028</v>
       </c>
       <c r="S20">
-        <v>0.026162284492244</v>
+        <v>0.02570278437117395</v>
       </c>
       <c r="T20">
-        <v>0.026162284492244</v>
+        <v>0.02368347299940247</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.47173736620961</v>
+        <v>1.572783</v>
       </c>
       <c r="H21">
-        <v>1.47173736620961</v>
+        <v>4.718349</v>
       </c>
       <c r="I21">
-        <v>0.09284190116522367</v>
+        <v>0.0934027349972017</v>
       </c>
       <c r="J21">
-        <v>0.09284190116522367</v>
+        <v>0.1151286188991439</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N21">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O21">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P21">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q21">
-        <v>37.77805743502444</v>
+        <v>43.11269875050201</v>
       </c>
       <c r="R21">
-        <v>37.77805743502444</v>
+        <v>388.014288754518</v>
       </c>
       <c r="S21">
-        <v>0.006344046884936144</v>
+        <v>0.006544097360260337</v>
       </c>
       <c r="T21">
-        <v>0.006344046884936144</v>
+        <v>0.009044951175270734</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.47173736620961</v>
+        <v>1.572783</v>
       </c>
       <c r="H22">
-        <v>1.47173736620961</v>
+        <v>4.718349</v>
       </c>
       <c r="I22">
-        <v>0.09284190116522367</v>
+        <v>0.0934027349972017</v>
       </c>
       <c r="J22">
-        <v>0.09284190116522367</v>
+        <v>0.1151286188991439</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N22">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O22">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P22">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q22">
-        <v>111.5489891112237</v>
+        <v>129.446217218841</v>
       </c>
       <c r="R22">
-        <v>111.5489891112237</v>
+        <v>1165.015954969569</v>
       </c>
       <c r="S22">
-        <v>0.01873235589484663</v>
+        <v>0.01964870381461889</v>
       </c>
       <c r="T22">
-        <v>0.01873235589484663</v>
+        <v>0.0271575370714707</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.47173736620961</v>
+        <v>1.572783</v>
       </c>
       <c r="H23">
-        <v>1.47173736620961</v>
+        <v>4.718349</v>
       </c>
       <c r="I23">
-        <v>0.09284190116522367</v>
+        <v>0.0934027349972017</v>
       </c>
       <c r="J23">
-        <v>0.09284190116522367</v>
+        <v>0.1151286188991439</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N23">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O23">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P23">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q23">
-        <v>103.0205423841638</v>
+        <v>112.096064699907</v>
       </c>
       <c r="R23">
-        <v>103.0205423841638</v>
+        <v>1008.864582299163</v>
       </c>
       <c r="S23">
-        <v>0.01730017887025492</v>
+        <v>0.01701511578626684</v>
       </c>
       <c r="T23">
-        <v>0.01730017887025492</v>
+        <v>0.02351751250874412</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.47173736620961</v>
+        <v>1.572783</v>
       </c>
       <c r="H24">
-        <v>1.47173736620961</v>
+        <v>4.718349</v>
       </c>
       <c r="I24">
-        <v>0.09284190116522367</v>
+        <v>0.0934027349972017</v>
       </c>
       <c r="J24">
-        <v>0.09284190116522367</v>
+        <v>0.1151286188991439</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N24">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O24">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P24">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q24">
-        <v>116.7059947912182</v>
+        <v>130.944647951038</v>
       </c>
       <c r="R24">
-        <v>116.7059947912182</v>
+        <v>1178.501831559342</v>
       </c>
       <c r="S24">
-        <v>0.01959836881454311</v>
+        <v>0.01987615133897479</v>
       </c>
       <c r="T24">
-        <v>0.01959836881454311</v>
+        <v>0.02747190460598022</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.47173736620961</v>
+        <v>1.572783</v>
       </c>
       <c r="H25">
-        <v>1.47173736620961</v>
+        <v>4.718349</v>
       </c>
       <c r="I25">
-        <v>0.09284190116522367</v>
+        <v>0.0934027349972017</v>
       </c>
       <c r="J25">
-        <v>0.09284190116522367</v>
+        <v>0.1151286188991439</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N25">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O25">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P25">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q25">
-        <v>28.01573718749403</v>
+        <v>30.4095634935165</v>
       </c>
       <c r="R25">
-        <v>28.01573718749403</v>
+        <v>182.457380961099</v>
       </c>
       <c r="S25">
-        <v>0.00470466620839887</v>
+        <v>0.004615882325906895</v>
       </c>
       <c r="T25">
-        <v>0.00470466620839887</v>
+        <v>0.004253240538275658</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.16249644655102</v>
+        <v>2.334429666666667</v>
       </c>
       <c r="H26">
-        <v>2.16249644655102</v>
+        <v>7.003289000000001</v>
       </c>
       <c r="I26">
-        <v>0.1364171936993837</v>
+        <v>0.1386345831085869</v>
       </c>
       <c r="J26">
-        <v>0.1364171936993837</v>
+        <v>0.1708815923369735</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N26">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O26">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P26">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q26">
-        <v>228.9148614976897</v>
+        <v>251.3319019632847</v>
       </c>
       <c r="R26">
-        <v>228.9148614976897</v>
+        <v>1507.991411779708</v>
       </c>
       <c r="S26">
-        <v>0.0384415375644385</v>
+        <v>0.03814979075435378</v>
       </c>
       <c r="T26">
-        <v>0.0384415375644385</v>
+        <v>0.03515259382858545</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.16249644655102</v>
+        <v>2.334429666666667</v>
       </c>
       <c r="H27">
-        <v>2.16249644655102</v>
+        <v>7.003289000000001</v>
       </c>
       <c r="I27">
-        <v>0.1364171936993837</v>
+        <v>0.1386345831085869</v>
       </c>
       <c r="J27">
-        <v>0.1364171936993837</v>
+        <v>0.1708815923369735</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N27">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O27">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P27">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q27">
-        <v>55.50916680959327</v>
+        <v>63.9907495015109</v>
       </c>
       <c r="R27">
-        <v>55.50916680959327</v>
+        <v>575.9167455135981</v>
       </c>
       <c r="S27">
-        <v>0.009321621615655556</v>
+        <v>0.009713186764701013</v>
       </c>
       <c r="T27">
-        <v>0.009321621615655556</v>
+        <v>0.01342512117507853</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.16249644655102</v>
+        <v>2.334429666666667</v>
       </c>
       <c r="H28">
-        <v>2.16249644655102</v>
+        <v>7.003289000000001</v>
       </c>
       <c r="I28">
-        <v>0.1364171936993837</v>
+        <v>0.1386345831085869</v>
       </c>
       <c r="J28">
-        <v>0.1364171936993837</v>
+        <v>0.1708815923369735</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N28">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O28">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P28">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q28">
-        <v>163.9044425369463</v>
+        <v>192.1327288719677</v>
       </c>
       <c r="R28">
-        <v>163.9044425369463</v>
+        <v>1729.194559847709</v>
       </c>
       <c r="S28">
-        <v>0.0275243762835641</v>
+        <v>0.02916391968656378</v>
       </c>
       <c r="T28">
-        <v>0.0275243762835641</v>
+        <v>0.04030903196006123</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.16249644655102</v>
+        <v>2.334429666666667</v>
       </c>
       <c r="H29">
-        <v>2.16249644655102</v>
+        <v>7.003289000000001</v>
       </c>
       <c r="I29">
-        <v>0.1364171936993837</v>
+        <v>0.1386345831085869</v>
       </c>
       <c r="J29">
-        <v>0.1364171936993837</v>
+        <v>0.1708815923369735</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N29">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O29">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P29">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q29">
-        <v>151.3731742785579</v>
+        <v>166.3804726729937</v>
       </c>
       <c r="R29">
-        <v>151.3731742785579</v>
+        <v>1497.424254056943</v>
       </c>
       <c r="S29">
-        <v>0.02542000780205442</v>
+        <v>0.02525497228367146</v>
       </c>
       <c r="T29">
-        <v>0.02542000780205442</v>
+        <v>0.03490626417415289</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.16249644655102</v>
+        <v>2.334429666666667</v>
       </c>
       <c r="H30">
-        <v>2.16249644655102</v>
+        <v>7.003289000000001</v>
       </c>
       <c r="I30">
-        <v>0.1364171936993837</v>
+        <v>0.1386345831085869</v>
       </c>
       <c r="J30">
-        <v>0.1364171936993837</v>
+        <v>0.1708815923369735</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N30">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O30">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P30">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q30">
-        <v>171.4818858457025</v>
+        <v>194.3567999324291</v>
       </c>
       <c r="R30">
-        <v>171.4818858457025</v>
+        <v>1749.211199391862</v>
       </c>
       <c r="S30">
-        <v>0.02879685186549085</v>
+        <v>0.02950151250672161</v>
       </c>
       <c r="T30">
-        <v>0.02879685186549085</v>
+        <v>0.04077563726975487</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.16249644655102</v>
+        <v>2.334429666666667</v>
       </c>
       <c r="H31">
-        <v>2.16249644655102</v>
+        <v>7.003289000000001</v>
       </c>
       <c r="I31">
-        <v>0.1364171936993837</v>
+        <v>0.1386345831085869</v>
       </c>
       <c r="J31">
-        <v>0.1364171936993837</v>
+        <v>0.1708815923369735</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N31">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O31">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P31">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q31">
-        <v>41.16490720861029</v>
+        <v>45.13590696850651</v>
       </c>
       <c r="R31">
-        <v>41.16490720861029</v>
+        <v>270.8154418110391</v>
       </c>
       <c r="S31">
-        <v>0.006912798568180286</v>
+        <v>0.00685120111257522</v>
       </c>
       <c r="T31">
-        <v>0.006912798568180286</v>
+        <v>0.006312943929340536</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.94360866089012</v>
+        <v>6.5013005</v>
       </c>
       <c r="H32">
-        <v>5.94360866089012</v>
+        <v>13.002601</v>
       </c>
       <c r="I32">
-        <v>0.3749418480012529</v>
+        <v>0.3860921994570611</v>
       </c>
       <c r="J32">
-        <v>0.3749418480012529</v>
+        <v>0.3172659536686725</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N32">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O32">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P32">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q32">
-        <v>629.1711394828553</v>
+        <v>699.9500748433429</v>
       </c>
       <c r="R32">
-        <v>629.1711394828553</v>
+        <v>2799.800299373372</v>
       </c>
       <c r="S32">
-        <v>0.105656338057959</v>
+        <v>0.1062457598306348</v>
       </c>
       <c r="T32">
-        <v>0.105656338057959</v>
+        <v>0.06526578464320963</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.94360866089012</v>
+        <v>6.5013005</v>
       </c>
       <c r="H33">
-        <v>5.94360866089012</v>
+        <v>13.002601</v>
       </c>
       <c r="I33">
-        <v>0.3749418480012529</v>
+        <v>0.3860921994570611</v>
       </c>
       <c r="J33">
-        <v>0.3749418480012529</v>
+        <v>0.3172659536686725</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N33">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O33">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P33">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q33">
-        <v>152.5666158362906</v>
+        <v>178.2118766180637</v>
       </c>
       <c r="R33">
-        <v>152.5666158362906</v>
+        <v>1069.271259708382</v>
       </c>
       <c r="S33">
-        <v>0.02562042173836412</v>
+        <v>0.02705086680127469</v>
       </c>
       <c r="T33">
-        <v>0.02562042173836412</v>
+        <v>0.02492564479578057</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.94360866089012</v>
+        <v>6.5013005</v>
       </c>
       <c r="H34">
-        <v>5.94360866089012</v>
+        <v>13.002601</v>
       </c>
       <c r="I34">
-        <v>0.3749418480012529</v>
+        <v>0.3860921994570611</v>
       </c>
       <c r="J34">
-        <v>0.3749418480012529</v>
+        <v>0.3172659536686725</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N34">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O34">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P34">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q34">
-        <v>450.4903884465074</v>
+        <v>535.0825617570636</v>
       </c>
       <c r="R34">
-        <v>450.4903884465074</v>
+        <v>3210.495370542381</v>
       </c>
       <c r="S34">
-        <v>0.07565058501044362</v>
+        <v>0.08122044041316169</v>
       </c>
       <c r="T34">
-        <v>0.07565058501044362</v>
+        <v>0.07483944461993845</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.94360866089012</v>
+        <v>6.5013005</v>
       </c>
       <c r="H35">
-        <v>5.94360866089012</v>
+        <v>13.002601</v>
       </c>
       <c r="I35">
-        <v>0.3749418480012529</v>
+        <v>0.3860921994570611</v>
       </c>
       <c r="J35">
-        <v>0.3749418480012529</v>
+        <v>0.3172659536686725</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N35">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O35">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P35">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q35">
-        <v>416.0482719420919</v>
+        <v>463.3634782939145</v>
       </c>
       <c r="R35">
-        <v>416.0482719420919</v>
+        <v>2780.180869763487</v>
       </c>
       <c r="S35">
-        <v>0.06986674071680166</v>
+        <v>0.07033416610480563</v>
       </c>
       <c r="T35">
-        <v>0.06986674071680166</v>
+        <v>0.06480843864320102</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.94360866089012</v>
+        <v>6.5013005</v>
       </c>
       <c r="H36">
-        <v>5.94360866089012</v>
+        <v>13.002601</v>
       </c>
       <c r="I36">
-        <v>0.3749418480012529</v>
+        <v>0.3860921994570611</v>
       </c>
       <c r="J36">
-        <v>0.3749418480012529</v>
+        <v>0.3172659536686725</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N36">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O36">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P36">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q36">
-        <v>471.3169464504095</v>
+        <v>541.2765176101263</v>
       </c>
       <c r="R36">
-        <v>471.3169464504095</v>
+        <v>3247.659105660758</v>
       </c>
       <c r="S36">
-        <v>0.07914797660226496</v>
+        <v>0.08216062396284322</v>
       </c>
       <c r="T36">
-        <v>0.07914797660226496</v>
+        <v>0.07570576366894925</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.94360866089012</v>
+        <v>6.5013005</v>
       </c>
       <c r="H37">
-        <v>5.94360866089012</v>
+        <v>13.002601</v>
       </c>
       <c r="I37">
-        <v>0.3749418480012529</v>
+        <v>0.3860921994570611</v>
       </c>
       <c r="J37">
-        <v>0.3749418480012529</v>
+        <v>0.3172659536686725</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N37">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O37">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P37">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q37">
-        <v>113.1415033768296</v>
+        <v>125.7018357555878</v>
       </c>
       <c r="R37">
-        <v>113.1415033768296</v>
+        <v>502.8073430223511</v>
       </c>
       <c r="S37">
-        <v>0.01899978587541961</v>
+        <v>0.01908034234434099</v>
       </c>
       <c r="T37">
-        <v>0.01899978587541961</v>
+        <v>0.01172087729759363</v>
       </c>
     </row>
   </sheetData>
